--- a/natmiOut/OldD2/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H2">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I2">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J2">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N2">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O2">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P2">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q2">
-        <v>10.51083707376024</v>
+        <v>14.91193515943</v>
       </c>
       <c r="R2">
-        <v>10.51083707376024</v>
+        <v>89.47161095657999</v>
       </c>
       <c r="S2">
-        <v>0.001408615603603517</v>
+        <v>0.001684970588143756</v>
       </c>
       <c r="T2">
-        <v>0.001408615603603517</v>
+        <v>0.001126051899935362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H3">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I3">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J3">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N3">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O3">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P3">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q3">
-        <v>21.79845726730696</v>
+        <v>23.99545863277333</v>
       </c>
       <c r="R3">
-        <v>21.79845726730696</v>
+        <v>143.97275179664</v>
       </c>
       <c r="S3">
-        <v>0.002921332223659724</v>
+        <v>0.002711361175660365</v>
       </c>
       <c r="T3">
-        <v>0.002921332223659724</v>
+        <v>0.001811980235587856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H4">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I4">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J4">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N4">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O4">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P4">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q4">
-        <v>0.04649260211817146</v>
+        <v>0.07977490858333333</v>
       </c>
       <c r="R4">
-        <v>0.04649260211817146</v>
+        <v>0.4786494515</v>
       </c>
       <c r="S4">
-        <v>6.230731609310086E-06</v>
+        <v>9.014146936507443E-06</v>
       </c>
       <c r="T4">
-        <v>6.230731609310086E-06</v>
+        <v>6.024079800308497E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H5">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I5">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J5">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N5">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O5">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P5">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q5">
-        <v>1728.39488416975</v>
+        <v>2376.241449378616</v>
       </c>
       <c r="R5">
-        <v>1728.39488416975</v>
+        <v>21386.17304440755</v>
       </c>
       <c r="S5">
-        <v>0.2316317897370864</v>
+        <v>0.2685028408267373</v>
       </c>
       <c r="T5">
-        <v>0.2316317897370864</v>
+        <v>0.2691573397587349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H6">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I6">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J6">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N6">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O6">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P6">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q6">
-        <v>3584.523455097911</v>
+        <v>3823.715888677822</v>
       </c>
       <c r="R6">
-        <v>3584.523455097911</v>
+        <v>34413.4429981004</v>
       </c>
       <c r="S6">
-        <v>0.4803818796638771</v>
+        <v>0.4320598729109798</v>
       </c>
       <c r="T6">
-        <v>0.4803818796638771</v>
+        <v>0.4331130562758506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H7">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I7">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J7">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N7">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O7">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P7">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q7">
-        <v>7.645211802720812</v>
+        <v>12.71226318847222</v>
       </c>
       <c r="R7">
-        <v>7.645211802720812</v>
+        <v>114.41036869625</v>
       </c>
       <c r="S7">
-        <v>0.001024577258936966</v>
+        <v>0.001436419173789985</v>
       </c>
       <c r="T7">
-        <v>0.001024577258936966</v>
+        <v>0.001439920569947477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H8">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I8">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J8">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N8">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O8">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P8">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q8">
-        <v>228.4012538822019</v>
+        <v>386.5510050396937</v>
       </c>
       <c r="R8">
-        <v>228.4012538822019</v>
+        <v>3478.959045357243</v>
       </c>
       <c r="S8">
-        <v>0.03060931949028676</v>
+        <v>0.04367823943342505</v>
       </c>
       <c r="T8">
-        <v>0.03060931949028676</v>
+        <v>0.04378470892541511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H9">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I9">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J9">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N9">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O9">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P9">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q9">
-        <v>473.6820614392178</v>
+        <v>622.0164285667049</v>
       </c>
       <c r="R9">
-        <v>473.6820614392178</v>
+        <v>5598.147857100344</v>
       </c>
       <c r="S9">
-        <v>0.06348076163753713</v>
+        <v>0.07028459930060359</v>
       </c>
       <c r="T9">
-        <v>0.06348076163753713</v>
+        <v>0.07045592409938962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H10">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I10">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J10">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N10">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O10">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P10">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q10">
-        <v>1.010287624621866</v>
+        <v>2.067945626113889</v>
       </c>
       <c r="R10">
-        <v>1.010287624621866</v>
+        <v>18.611510635025</v>
       </c>
       <c r="S10">
-        <v>0.0001353942509224699</v>
+        <v>0.0002336670271583731</v>
       </c>
       <c r="T10">
-        <v>0.0001353942509224699</v>
+        <v>0.0002342366107771062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H11">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I11">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J11">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N11">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O11">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P11">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q11">
-        <v>429.350358219741</v>
+        <v>571.4973630146106</v>
       </c>
       <c r="R11">
-        <v>429.350358219741</v>
+        <v>5143.476267131496</v>
       </c>
       <c r="S11">
-        <v>0.05753962408102706</v>
+        <v>0.06457620943130113</v>
       </c>
       <c r="T11">
-        <v>0.05753962408102706</v>
+        <v>0.064733619535325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H12">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I12">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J12">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N12">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O12">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P12">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q12">
-        <v>890.4310256811665</v>
+        <v>919.6218456116409</v>
       </c>
       <c r="R12">
-        <v>890.4310256811665</v>
+        <v>8276.596610504766</v>
       </c>
       <c r="S12">
-        <v>0.1193316029832113</v>
+        <v>0.1039124530453849</v>
       </c>
       <c r="T12">
-        <v>0.1193316029832113</v>
+        <v>0.1041657486504892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H13">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I13">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J13">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N13">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O13">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P13">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q13">
-        <v>1.899146113094831</v>
+        <v>3.057359719088889</v>
       </c>
       <c r="R13">
-        <v>1.899146113094831</v>
+        <v>27.5162374718</v>
       </c>
       <c r="S13">
-        <v>0.0002545151094679951</v>
+        <v>0.0003454656386956252</v>
       </c>
       <c r="T13">
-        <v>0.0002545151094679951</v>
+        <v>0.0003463077411138789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H14">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I14">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J14">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N14">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O14">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P14">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q14">
-        <v>20.10512397433233</v>
+        <v>25.980459783776</v>
       </c>
       <c r="R14">
-        <v>20.10512397433233</v>
+        <v>233.824138053984</v>
       </c>
       <c r="S14">
-        <v>0.002694399232324519</v>
+        <v>0.002935655911461701</v>
       </c>
       <c r="T14">
-        <v>0.002694399232324519</v>
+        <v>0.00294281182702985</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H15">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I15">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J15">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N15">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O15">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P15">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q15">
-        <v>41.69607831734803</v>
+        <v>41.80631429367467</v>
       </c>
       <c r="R15">
-        <v>41.69607831734803</v>
+        <v>376.256828643072</v>
       </c>
       <c r="S15">
-        <v>0.005587922837612665</v>
+        <v>0.004723894600560237</v>
       </c>
       <c r="T15">
-        <v>0.005587922837612665</v>
+        <v>0.004735409502828743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H16">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I16">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J16">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N16">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O16">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P16">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q16">
-        <v>0.08893102641736045</v>
+        <v>0.1389885874666666</v>
       </c>
       <c r="R16">
-        <v>0.08893102641736045</v>
+        <v>1.2508972872</v>
       </c>
       <c r="S16">
-        <v>1.191814035141879E-05</v>
+        <v>1.570498258375817E-05</v>
       </c>
       <c r="T16">
-        <v>1.191814035141879E-05</v>
+        <v>1.574326483915801E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H17">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I17">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J17">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.0487436371835</v>
+        <v>21.983953</v>
       </c>
       <c r="N17">
-        <v>17.0487436371835</v>
+        <v>65.951859</v>
       </c>
       <c r="O17">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="P17">
-        <v>0.3248518446550713</v>
+        <v>0.3824831516716194</v>
       </c>
       <c r="Q17">
-        <v>7.223762586518078</v>
+        <v>9.781298224337</v>
       </c>
       <c r="R17">
-        <v>7.223762586518078</v>
+        <v>58.687789346022</v>
       </c>
       <c r="S17">
-        <v>0.0009680965107431157</v>
+        <v>0.001105235480550506</v>
       </c>
       <c r="T17">
-        <v>0.0009680965107431157</v>
+        <v>0.0007386197251792554</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H18">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I18">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J18">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.3574417554418</v>
+        <v>35.37535733333333</v>
       </c>
       <c r="N18">
-        <v>35.3574417554418</v>
+        <v>106.126072</v>
       </c>
       <c r="O18">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="P18">
-        <v>0.6737112376708259</v>
+        <v>0.6154706646417534</v>
       </c>
       <c r="Q18">
-        <v>14.98138339947187</v>
+        <v>15.73952236296267</v>
       </c>
       <c r="R18">
-        <v>14.98138339947187</v>
+        <v>94.437134177776</v>
       </c>
       <c r="S18">
-        <v>0.002007738324928027</v>
+        <v>0.001778483608564507</v>
       </c>
       <c r="T18">
-        <v>0.002007738324928027</v>
+        <v>0.00118854587760739</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H19">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I19">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J19">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.0754117344770823</v>
+        <v>0.1176083333333333</v>
       </c>
       <c r="N19">
-        <v>0.0754117344770823</v>
+        <v>0.352825</v>
       </c>
       <c r="O19">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="P19">
-        <v>0.001436917674102917</v>
+        <v>0.002046183686627228</v>
       </c>
       <c r="Q19">
-        <v>0.03195288038186361</v>
+        <v>0.05232735814166667</v>
       </c>
       <c r="R19">
-        <v>0.03195288038186361</v>
+        <v>0.31396414885</v>
       </c>
       <c r="S19">
-        <v>4.282182814757279E-06</v>
+        <v>5.912717462979052E-06</v>
       </c>
       <c r="T19">
-        <v>4.282182814757279E-06</v>
+        <v>3.95142014929967E-06</v>
       </c>
     </row>
   </sheetData>
